--- a/[52685] Database.xlsx
+++ b/[52685] Database.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFS\Project A2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9437F7C1-FC81-4E54-814C-CF349EA2B204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="7485" yWindow="1260" windowWidth="28830" windowHeight="17235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Dishes " sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Restaurants " sheetId="2" r:id="rId5"/>
+    <sheet name="Dishes " sheetId="1" r:id="rId1"/>
+    <sheet name="Restaurants " sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuisine </t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -32,15 +35,6 @@
     <t>Website link</t>
   </si>
   <si>
-    <t xml:space="preserve">Postcode </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryo's Noodles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese </t>
-  </si>
-  <si>
     <t>125 Falcon St, Crows Nest NSW 2065</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
     <t>Pho Ha Noi Quan Marrickville</t>
   </si>
   <si>
-    <t xml:space="preserve">Vietnamese </t>
-  </si>
-  <si>
     <t>346B Illawarra Rd, Marrickville NSW 2204</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>https://www.instagram.com/coolmaccafe/?hl=en</t>
   </si>
   <si>
-    <t xml:space="preserve">Amuro </t>
-  </si>
-  <si>
     <t>2/255 Crown St, Darlinghurst NSW 2010</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>Enjoy Mie</t>
   </si>
   <si>
-    <t xml:space="preserve">Indonesian </t>
-  </si>
-  <si>
     <t>375 Sussex St, Sydney NSW 2000</t>
   </si>
   <si>
@@ -143,24 +128,12 @@
     <t>https://enjoymie.business.site/</t>
   </si>
   <si>
-    <t xml:space="preserve">Ho Jiak </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysian </t>
-  </si>
-  <si>
     <t>92 Hay St, Haymarket NSW 2000</t>
   </si>
   <si>
     <t>(02) 8040 0252</t>
   </si>
   <si>
-    <t>hojiak.com.au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Rolls Marrickville </t>
-  </si>
-  <si>
     <t>275 Marrickville Rd, Marrickville NSW 2204</t>
   </si>
   <si>
@@ -170,102 +143,129 @@
     <t>https://www.facebook.com/Vietrollsbanhcuongialong/</t>
   </si>
   <si>
-    <t xml:space="preserve">Fabbrica Pasta Shop CBD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italian </t>
-  </si>
-  <si>
     <t>161 King St, Sydney NSW 2000</t>
   </si>
   <si>
     <t>(02) 9064 8495</t>
   </si>
   <si>
-    <t>Fabbrica Pasta Shop Reservations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kindred </t>
-  </si>
-  <si>
     <t>137 Cleveland St, Darlington NSW 2008</t>
   </si>
   <si>
-    <t>02 8937-0530</t>
-  </si>
-  <si>
     <t>https://www.kindredrestaurant.com.au/</t>
+  </si>
+  <si>
+    <t>https://hojiak.com.au</t>
+  </si>
+  <si>
+    <t>https://www.sevenrooms.com/reservations/fabbricapastashop/fab-widget?venues=fabbricapastashop,palazzosalato,fabbricabalmain,ragazziwineandpasta,dearsainteeloise,lovetillydevine,barlasalut</t>
+  </si>
+  <si>
+    <t>(02) 8937 0530</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Ryo's Noodles</t>
+  </si>
+  <si>
+    <t>Amuro</t>
+  </si>
+  <si>
+    <t>Ho Jiak</t>
+  </si>
+  <si>
+    <t>Viet Rolls Marrickville</t>
+  </si>
+  <si>
+    <t>Fabbrica Pasta Shop CBD</t>
+  </si>
+  <si>
+    <t>Kindred</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Malaysian</t>
+  </si>
+  <si>
+    <t>Italian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF050505"/>
       <name val="System-ui"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF424242"/>
       <name val="Helvetica-w01-roman"/>
     </font>
@@ -275,7 +275,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -285,70 +285,66 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -538,378 +534,376 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.0"/>
-    <col customWidth="1" min="4" max="4" width="33.75"/>
-    <col customWidth="1" min="5" max="5" width="21.5"/>
-    <col customWidth="1" min="6" max="6" width="51.63"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G3" s="1">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1">
-        <v>2065.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G4" s="1">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1">
-        <v>2204.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2137.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2066.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2061.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1">
-        <v>2010.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="G9" s="1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="E10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1">
-        <v>2010.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1">
-        <v>2035.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="G12" s="1">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="1">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="E14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2204.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="G14" s="1">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="E3"/>
-    <hyperlink r:id="rId3" ref="F3"/>
-    <hyperlink r:id="rId4" ref="E4"/>
-    <hyperlink r:id="rId5" ref="F4"/>
-    <hyperlink r:id="rId6" ref="E5"/>
-    <hyperlink r:id="rId7" ref="F5"/>
-    <hyperlink r:id="rId8" ref="E6"/>
-    <hyperlink r:id="rId9" ref="F6"/>
-    <hyperlink r:id="rId10" ref="F7"/>
-    <hyperlink r:id="rId11" ref="E8"/>
-    <hyperlink r:id="rId12" ref="F8"/>
-    <hyperlink r:id="rId13" ref="E9"/>
-    <hyperlink r:id="rId14" ref="E10"/>
-    <hyperlink r:id="rId15" ref="F10"/>
-    <hyperlink r:id="rId16" ref="E11"/>
-    <hyperlink r:id="rId17" ref="F11"/>
-    <hyperlink r:id="rId18" ref="F12"/>
-    <hyperlink r:id="rId19" ref="F13"/>
-    <hyperlink r:id="rId20" ref="F14"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/[52685] Database.xlsx
+++ b/[52685] Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFS\Project A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT A2\52685-Code-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9437F7C1-FC81-4E54-814C-CF349EA2B204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A54336E-B272-4E0D-88D2-EF1F32998E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="1260" windowWidth="28830" windowHeight="17235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15420" yWindow="690" windowWidth="29295" windowHeight="19455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dishes " sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Italian</t>
+  </si>
+  <si>
+    <t>Suburb Range</t>
+  </si>
+  <si>
+    <t>Chatswood, Lane Cove, North Sydney, Artarmon, St Leonards, Crows Nest</t>
+  </si>
+  <si>
+    <t>Marrickville, Tempe, Hurstville, Newtown, Erskineville, Mascot</t>
+  </si>
+  <si>
+    <t>Strathfield, Burwood, Rhodes, Concord, Homebush</t>
   </si>
 </sst>
 </file>
@@ -559,10 +571,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -571,9 +583,11 @@
     <col min="4" max="4" width="50.140625" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="12" customWidth="1"/>
     <col min="6" max="6" width="51.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:8" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,8 +609,11 @@
       <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -618,8 +635,11 @@
       <c r="G2" s="1">
         <v>2065</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75">
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -641,8 +661,11 @@
       <c r="G3" s="1">
         <v>2204</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -664,8 +687,11 @@
       <c r="G4" s="1">
         <v>2137</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -687,8 +713,11 @@
       <c r="G5" s="1">
         <v>2066</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25">
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -711,7 +740,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -731,7 +760,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
+    <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -754,7 +783,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -774,7 +803,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
+    <row r="10" spans="1:8" ht="14.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -797,7 +826,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -820,7 +849,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:8" ht="12.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -842,8 +871,11 @@
       <c r="G12" s="1">
         <v>2204</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75">
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -866,7 +898,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
